--- a/testcases/TutorialsNinja-Web - Test Cases.xlsx
+++ b/testcases/TutorialsNinja-Web - Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\TutorialsNinjaProject\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C799FB-953D-42E6-95DE-055C9C118145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726A773-8D0F-489C-AE5B-3527D6762384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -8163,7 +8163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8192,8 +8192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8215,6 +8221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,7 +8400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8508,6 +8520,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20419,8 +20459,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20947,59 +20987,59 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:11" s="56" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" s="56" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="6"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -23077,8 +23117,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23524,32 +23564,32 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="6"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">

--- a/testcases/TutorialsNinja-Web - Test Cases.xlsx
+++ b/testcases/TutorialsNinja-Web - Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\TutorialsNinjaProject\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726A773-8D0F-489C-AE5B-3527D6762384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220206C6-6D8E-4874-846D-0815BBCF813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8502,24 +8502,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8548,6 +8530,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9729,7 +9729,7 @@
       </c>
     </row>
     <row r="9" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="51" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -9738,7 +9738,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="40"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
@@ -9747,7 +9747,7 @@
       </c>
     </row>
     <row r="11" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="40"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
@@ -9756,12 +9756,12 @@
       </c>
     </row>
     <row r="12" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="40"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="8:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="41"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -9833,10 +9833,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -10181,10 +10181,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -10799,10 +10799,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -11795,10 +11795,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -12171,10 +12171,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -12817,10 +12817,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -13166,10 +13166,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -13623,10 +13623,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -14080,10 +14080,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -14753,10 +14753,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -15144,55 +15144,55 @@
       <c r="A2" s="19" t="s">
         <v>2079</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="55" t="s">
         <v>2080</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2081</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="55" t="s">
         <v>2082</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>2083</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="54" t="s">
         <v>2084</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>2085</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>2086</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="54" t="s">
         <v>2087</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="54"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>2088</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="54" t="s">
         <v>2089</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
@@ -15845,10 +15845,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -16166,10 +16166,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -16568,10 +16568,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -17024,10 +17024,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -17399,10 +17399,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -17963,10 +17963,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -18365,10 +18365,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -18713,10 +18713,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -19601,10 +19601,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -20057,10 +20057,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -20459,7 +20459,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -20514,10 +20514,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -20987,59 +20987,59 @@
       <c r="J19" s="33"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="56" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:11" s="50" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" s="56" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" s="50" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -21348,10 +21348,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -21750,10 +21750,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -22287,10 +22287,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -22986,10 +22986,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -23117,8 +23117,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23172,10 +23172,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -23564,32 +23564,32 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="48"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -23618,59 +23618,59 @@
       <c r="J18" s="33"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:11" s="50" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
+    </row>
+    <row r="20" spans="1:11" s="50" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="6"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -23898,10 +23898,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -24300,10 +24300,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -25080,10 +25080,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -25779,10 +25779,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -26535,10 +26535,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="56" t="s">
         <v>2133</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>

--- a/testcases/TutorialsNinja-Web - Test Cases.xlsx
+++ b/testcases/TutorialsNinja-Web - Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\TutorialsNinjaProject\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220206C6-6D8E-4874-846D-0815BBCF813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42A628C-A7C8-4070-84ED-190520BE2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -23117,7 +23117,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+    <sheetView topLeftCell="B20" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -23843,8 +23843,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23966,32 +23966,32 @@
       <c r="J4" s="33"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -24074,32 +24074,32 @@
       <c r="J8" s="33"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" s="50" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="6"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">

--- a/testcases/TutorialsNinja-Web - Test Cases.xlsx
+++ b/testcases/TutorialsNinja-Web - Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\TutorialsNinjaProject\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42A628C-A7C8-4070-84ED-190520BE2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782D836-DFDC-4A98-9E07-040E3BD9D3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -23843,7 +23843,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -25025,8 +25025,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25472,59 +25472,59 @@
       <c r="J16" s="33"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" s="50" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="47" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:11" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
